--- a/bots/crawl_ch/output/electronics_2022-09-10.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-09-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1232,50 +1232,48 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4905482</t>
+          <t>7032801</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR14/C 2 Stück</t>
+          <t>Duracell Batterien Plus AA/LR6 16 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr14c-2-stueck/p/4905482</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-16-stueck/p/7032801</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
+          <t>16ST</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.48/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1285,7 +1283,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1295,58 +1293,60 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR14/C 2 Stück 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AA/LR6 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7032801</t>
+          <t>4905482</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 16 Stück</t>
+          <t>Alkaline Batterie LR14/C 2 Stück</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-16-stueck/p/7032801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr14c-2-stueck/p/4905482</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16ST</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>2.48/1ST</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
+          <t>Alkaline Batterie LR14/C 2 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3724,39 +3724,41 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>37.45</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3765,17 +3767,17 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3826,33 +3828,33 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
         <v>3</v>
       </c>
-      <c r="F50" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>satrap</t>
@@ -3860,7 +3862,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>37.45</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3869,51 +3871,49 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 25% Aktion 89.25 Schweizer Franken statt 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>4</v>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3927,29 +3927,29 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 25% Aktion 89.25 Schweizer Franken statt 119.00 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3959,12 +3959,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3978,12 +3978,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5075,165 +5075,165 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>124.50</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 50% Aktion 124.50 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>186.75</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 25% Aktion 186.75 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6725106</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>Braun Dampfbügelstation IS1012BL</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/braun-dampfbuegelstation-is1012bl/p/6725106</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>7</v>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Braun</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>186.75</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5242,34 +5242,34 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 25% Aktion 186.75 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>Braun Dampfbügelstation IS1012BL 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6725106</t>
+          <t>6995204</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Braun Dampfbügelstation IS1012BL</t>
+          <t>Electrolux AirFryer Range Explore 6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/braun-dampfbuegelstation-is1012bl/p/6725106</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/electrolux-airfryer-range-explore-6/p/6995204</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5279,12 +5279,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Braun</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5293,49 +5293,51 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Braun Dampfbügelstation IS1012BL 149.00 Schweizer Franken</t>
+          <t>Electrolux AirFryer Range Explore 6 199.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6995204</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Electrolux AirFryer Range Explore 6</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/electrolux-airfryer-range-explore-6/p/6995204</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5344,51 +5346,49 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Electrolux AirFryer Range Explore 6 199.00 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5397,34 +5397,34 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6689620</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Philips Bügeleisen GC1750/21</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-buegeleisen-gc175021/p/6689620</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -5434,12 +5434,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>59.90</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -5448,34 +5448,34 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Philips Bügeleisen GC1750/21 59.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6689620</t>
+          <t>5764836</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Philips Bügeleisen GC1750/21</t>
+          <t>satrap Aqua W4 Wasserkocher</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-buegeleisen-gc175021/p/6689620</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-w4-wasserkocher/p/5764836</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -5485,12 +5485,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>59.90</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5499,40 +5499,42 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Philips Bügeleisen GC1750/21 59.90 Schweizer Franken</t>
+          <t>satrap Aqua W4 Wasserkocher 25% Aktion 29.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5764836</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>satrap Aqua W4 Wasserkocher</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-w4-wasserkocher/p/5764836</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5541,7 +5543,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>111.75</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5550,34 +5552,34 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>satrap Aqua W4 Wasserkocher 25% Aktion 29.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 25% Aktion 111.75 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -5585,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5594,7 +5596,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>111.75</t>
+          <t>37.45</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5603,51 +5605,49 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 25% Aktion 111.75 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>37.45</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -5661,29 +5661,29 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -5693,12 +5693,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -5707,34 +5707,34 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6872922</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Trend Radio DAB+ DB-23C</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-radio-dab-db-23c/p/6872922</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -5758,40 +5758,42 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Trend Radio DAB+ DB-23C 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6872922</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Trend Radio DAB+ DB-23C</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-radio-dab-db-23c/p/6872922</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5800,7 +5802,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -5809,42 +5811,40 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Trend Radio DAB+ DB-23C 49.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -5867,29 +5867,29 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5918,35 +5918,37 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4</v>
+      </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -5955,7 +5957,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -5969,156 +5971,158 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>3862219</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Varta Active LED Camping Lanterne</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-active-led-camping-lanterne/p/3862219</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Varta Active LED Camping Lanterne 38.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3862219</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Varta Active LED Camping Lanterne</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-active-led-camping-lanterne/p/3862219</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
         <v>0</v>
@@ -6130,48 +6134,64 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>38.50</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1.99/1ST</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Varta Active LED Camping Lanterne 38.50 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -6185,12 +6205,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6200,7 +6220,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6210,39 +6230,39 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -6256,12 +6276,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6271,7 +6291,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6281,39 +6301,39 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>3591272</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife Max Power D 2er Bli</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -6332,7 +6352,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6342,7 +6362,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6352,88 +6372,17 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-09-10 07:04:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>3591272</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>4.98/1ST</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>2022-09-10 07:04:12</t>
+          <t>2022-09-10 20:58:20</t>
         </is>
       </c>
     </row>
